--- a/data/Subset 1/Stephanies group 2_first grade.xlsx
+++ b/data/Subset 1/Stephanies group 2_first grade.xlsx
@@ -550,7 +550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
